--- a/bd.xlsx
+++ b/bd.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,44 +390,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F8" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>Teste Covid</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>V. Epidemiológica</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Teste Covid</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VIado</t>
+          <t>Alfinete</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>VIEP</t>
+          <t>CERPAT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>Teste Covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Papel</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>V. Sanitária</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Material</t>
         </is>

--- a/bd.xlsx
+++ b/bd.xlsx
@@ -1,33 +1,562 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\Almoxarifado\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554BD983-C4CC-4B56-94E6-79BD5F5D66AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="173">
+  <si>
+    <t>Material - Escritorio/expediente</t>
+  </si>
+  <si>
+    <t>Tipo de Material</t>
+  </si>
+  <si>
+    <t>Unidade de Medida</t>
+  </si>
+  <si>
+    <t>Preço Unitário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUA DESTILADA P/ AUTOCLAVE </t>
+  </si>
+  <si>
+    <t>Penso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALAO </t>
+  </si>
+  <si>
+    <t>AGUA OXIGENADA 1L</t>
+  </si>
+  <si>
+    <t>UNIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÁGUA SANITARIA </t>
+  </si>
+  <si>
+    <t>Limpeza</t>
+  </si>
+  <si>
+    <t>AGULHA 24 G (20X0,55)</t>
+  </si>
+  <si>
+    <t>AGULHA 25/08 OU 25/8</t>
+  </si>
+  <si>
+    <t>AGULHA 30 X 7</t>
+  </si>
+  <si>
+    <t>AGULHA HIPODERMICA 25X 0,8</t>
+  </si>
+  <si>
+    <t>AGULHA HIPODERMICA 30X 7</t>
+  </si>
+  <si>
+    <t>AGULHA HIPODERMICA 30X 8</t>
+  </si>
+  <si>
+    <t>AGULHA HIPODERMICA DESC.</t>
+  </si>
+  <si>
+    <t>AGULHA HIPODERMICA ESTERIL 40X 1,2</t>
+  </si>
+  <si>
+    <t>ALCOOL EM GEL 70%</t>
+  </si>
+  <si>
+    <t>ALCOOL EM GEL 70% 483ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCOOL IODADO </t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUÍDO 70 %</t>
+  </si>
+  <si>
+    <t>ALGODAO ROLO PACOTE</t>
+  </si>
+  <si>
+    <t>PACOTE</t>
+  </si>
+  <si>
+    <t>ALMOFADA P/ CARIMBO</t>
+  </si>
+  <si>
+    <t>Escritorio</t>
+  </si>
+  <si>
+    <t>ALMONTOLIA 250ML</t>
+  </si>
+  <si>
+    <t>ALMONTOLIA 500ML</t>
+  </si>
+  <si>
+    <t>AVENTAL</t>
+  </si>
+  <si>
+    <t>AZUL DE METILENO</t>
+  </si>
+  <si>
+    <t>BALDE 50 L</t>
+  </si>
+  <si>
+    <t>BALDE REFORÇADO 20 L</t>
+  </si>
+  <si>
+    <t>BASTÃO DE COLA QUENTE</t>
+  </si>
+  <si>
+    <t>BOM AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCHA DE AÇO </t>
+  </si>
+  <si>
+    <t>BUCHA DE PRATO</t>
+  </si>
+  <si>
+    <t>CAIXA DE PERFURO CORTANTE 13 L</t>
+  </si>
+  <si>
+    <t>CAIXA DE PERFURO CORTANTE 3 LITROS</t>
+  </si>
+  <si>
+    <t>CAIXA P/ ARQUIVO EM PAPELÃO</t>
+  </si>
+  <si>
+    <t>CAIXA PERFURO CORTANTE 6 LITROS</t>
+  </si>
+  <si>
+    <t>CAIXA TÉRMICA 12L</t>
+  </si>
+  <si>
+    <t>CALCULADORA</t>
+  </si>
+  <si>
+    <t>CAMPO CIRURGICO</t>
+  </si>
+  <si>
+    <t>CANETA AZUL</t>
+  </si>
+  <si>
+    <t>CANETA PRETA</t>
+  </si>
+  <si>
+    <t>CANETA VERMELHA</t>
+  </si>
+  <si>
+    <t>CARBONO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATÉTER 22 G </t>
+  </si>
+  <si>
+    <t>CATETER 24 G</t>
+  </si>
+  <si>
+    <t>CLASSIFICADOR C/ ELÁSTICO</t>
+  </si>
+  <si>
+    <t>CLIPS 3/0</t>
+  </si>
+  <si>
+    <t>CAIXA</t>
+  </si>
+  <si>
+    <t>CLIPS 8/0</t>
+  </si>
+  <si>
+    <t>CLOREXIDINA ALCOOLICA</t>
+  </si>
+  <si>
+    <t>COLA BRANCA</t>
+  </si>
+  <si>
+    <t>COPO DESCARTÁVEL</t>
+  </si>
+  <si>
+    <t>COPO DESCARTAVEL P/ CAFÉ</t>
+  </si>
+  <si>
+    <t>CORRETIVO</t>
+  </si>
+  <si>
+    <t>COTONETE</t>
+  </si>
+  <si>
+    <t>DESINFETANTE 1L</t>
+  </si>
+  <si>
+    <t>LITRO</t>
+  </si>
+  <si>
+    <t>DESINFETANTE 5L</t>
+  </si>
+  <si>
+    <t>DESINFETANTE HOSP. 5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DETERGENTE </t>
+  </si>
+  <si>
+    <t>ELASTICO DE BORRACHA</t>
+  </si>
+  <si>
+    <t>ENVELOPE A4 PARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPO </t>
+  </si>
+  <si>
+    <t>ESCADA DE 8 DEGRAUS</t>
+  </si>
+  <si>
+    <t>ESCALPE</t>
+  </si>
+  <si>
+    <t>PENSO</t>
+  </si>
+  <si>
+    <t>ESPARADRAPO</t>
+  </si>
+  <si>
+    <t>ESPECULO</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE</t>
+  </si>
+  <si>
+    <t>ESTOPA</t>
+  </si>
+  <si>
+    <t>EVA (VERMELHO E LARANJA)</t>
+  </si>
+  <si>
+    <t>EVA (VERMELHO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA EM CORES </t>
+  </si>
+  <si>
+    <t>EXTRATOR</t>
+  </si>
+  <si>
+    <t>FIO DE NYLON AGULHADO</t>
+  </si>
+  <si>
+    <t>FITA ADESIVA DUPLA FACE</t>
+  </si>
+  <si>
+    <t>FITA ADESIVA FINA</t>
+  </si>
+  <si>
+    <t>FITA ADESIVA LARGA</t>
+  </si>
+  <si>
+    <t>FITA AUTOCLAVE</t>
+  </si>
+  <si>
+    <t>FITA CREPE</t>
+  </si>
+  <si>
+    <t>FLANELA</t>
+  </si>
+  <si>
+    <t>GASE ESTÉREO (PCT)</t>
+  </si>
+  <si>
+    <t>GRAMPEADOR</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6</t>
+  </si>
+  <si>
+    <t>HIPOCLORITO 5L</t>
+  </si>
+  <si>
+    <t>IODOPOVIDONA</t>
+  </si>
+  <si>
+    <t>LAMINA P/ MICROSCOPIA</t>
+  </si>
+  <si>
+    <t>LAMINA DE BISTURI Nº 24</t>
+  </si>
+  <si>
+    <t>LÁPIS C/ BORRACHA</t>
+  </si>
+  <si>
+    <t>LAPISEIRA</t>
+  </si>
+  <si>
+    <t>LENÇO  DESCARTAVEL</t>
+  </si>
+  <si>
+    <t>LENÇOL DESCARTAVEL</t>
+  </si>
+  <si>
+    <t>LIVRO ATA</t>
+  </si>
+  <si>
+    <t>LIVRO DE PROTOCOLO</t>
+  </si>
+  <si>
+    <t>LIXEIRA TELADA</t>
+  </si>
+  <si>
+    <t>LUVA CIRURGICA ESTERIL</t>
+  </si>
+  <si>
+    <t>LUVA DESCARTÁVEL G</t>
+  </si>
+  <si>
+    <t>LUVA DESCARTÁVEL M</t>
+  </si>
+  <si>
+    <t>LUVA DESCARTAVEL P</t>
+  </si>
+  <si>
+    <t>LUVA PARA LIMPEZA</t>
+  </si>
+  <si>
+    <t>MARCA TEXTO</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL</t>
+  </si>
+  <si>
+    <t>MÁSCARA N95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOB GIRATÓRIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCULOS DE PROTEÇÃO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDADE </t>
+  </si>
+  <si>
+    <t>PÁ DE LIXO</t>
+  </si>
+  <si>
+    <t>PANO DE CHÃO</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO</t>
+  </si>
+  <si>
+    <t>PAPEL GRAU CIRURGICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPEL HIGIENICO </t>
+  </si>
+  <si>
+    <t>PAPEL MADEIRA</t>
+  </si>
+  <si>
+    <t>PAPEL OFICIO (RESMA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPEL TOALHA </t>
+  </si>
+  <si>
+    <t>PASTA AZ</t>
+  </si>
+  <si>
+    <t>PASTA L</t>
+  </si>
+  <si>
+    <t>PASTA SUSPENSA</t>
+  </si>
+  <si>
+    <t>PASTA TRANSPARENTE</t>
+  </si>
+  <si>
+    <t>PEDRA SANITÁRIA</t>
+  </si>
+  <si>
+    <t>PERFURADOR</t>
+  </si>
+  <si>
+    <t>PILHA PALITO</t>
+  </si>
+  <si>
+    <t>PILHA REDONDA LR14C</t>
+  </si>
+  <si>
+    <t>PILHA ZC 9V QUADRADA</t>
+  </si>
+  <si>
+    <t>PILOTO AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PILOTO AZUL P/ QUADRO </t>
+  </si>
+  <si>
+    <t>PILOTO PRETO (PERMANENTE)</t>
+  </si>
+  <si>
+    <t>PILOTO PRETO P/ QUADRO</t>
+  </si>
+  <si>
+    <t>PILOTO VERMELHO</t>
+  </si>
+  <si>
+    <t>PILOTO VERMELHO P/ QUADRO</t>
+  </si>
+  <si>
+    <t>POST IT</t>
+  </si>
+  <si>
+    <t>REGUA</t>
+  </si>
+  <si>
+    <t>REPELENTE DE INSETOS</t>
+  </si>
+  <si>
+    <t>RODO</t>
+  </si>
+  <si>
+    <t>SABÃO DE CÔCO EM BARRA</t>
+  </si>
+  <si>
+    <t>SABÃO EM BARRA</t>
+  </si>
+  <si>
+    <t>SABÃO EM PÓ</t>
+  </si>
+  <si>
+    <t>SABÃO LIQUIDO</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>SABÃO LIQUIDO (5Lt)</t>
+  </si>
+  <si>
+    <t>GALAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACO DE LIXO BRANCO INFECTANTE 100 LT (100 UNID) </t>
+  </si>
+  <si>
+    <t>SACO DE LIXO BRANCO INFECTANTE 50 L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO INFECTANTE 100 L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO PRETO (100 lt)</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO PRETO (30 lt)</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO PRETO (50 lt)</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO PRETO (60 lt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERINGA 10 ML </t>
+  </si>
+  <si>
+    <t>SERINGA 1ML C/ AGÚLHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERINGA 20 ML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERINGA 3 ML </t>
+  </si>
+  <si>
+    <t>FITA MICROPOROSA</t>
+  </si>
+  <si>
+    <t>SERINGA 5 ML</t>
+  </si>
+  <si>
+    <t>Bolsonaro</t>
+  </si>
+  <si>
+    <t>SORO FISIOLOGICO DE 500ML</t>
+  </si>
+  <si>
+    <t>SORO RINGER LACTATO</t>
+  </si>
+  <si>
+    <t>SUPORTE DE PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>SUPORTE PARA ÁGUA</t>
+  </si>
+  <si>
+    <t>SUPORTE PARA SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>TESOURA</t>
+  </si>
+  <si>
+    <t>TINTA P/CARIMBO</t>
+  </si>
+  <si>
+    <t>TOUCA</t>
+  </si>
+  <si>
+    <t>TUBO C/ GEL SEPEARADOR AT. COAGULO</t>
+  </si>
+  <si>
+    <t>VASELINA LIQUIDA</t>
+  </si>
+  <si>
+    <t>VASELINA SOLIDA</t>
+  </si>
+  <si>
+    <t>VASSOURA</t>
+  </si>
+  <si>
+    <t>VISEIRA</t>
+  </si>
+  <si>
+    <t>DISPENSER P PAPEL TOALHA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +575,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,80 +870,2249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:F8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Teste Covid</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>500</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>V. Epidemiológica</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Teste Covid</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Alfinete</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CERPAT</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Teste Covid</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Papel</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>63.67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>V. Sanitária</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>14.76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69">
+        <v>47.44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80">
+        <v>27.24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>129</v>
+      </c>
+      <c r="B119" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>130</v>
+      </c>
+      <c r="B120" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>131</v>
+      </c>
+      <c r="B121" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>134</v>
+      </c>
+      <c r="B124" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>135</v>
+      </c>
+      <c r="B125" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>137</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>138</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>140</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>144</v>
+      </c>
+      <c r="D132">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>24</v>
+      </c>
+      <c r="D136">
+        <v>21.89</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137">
+        <v>21.89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138">
+        <v>21.89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139">
+        <v>21.89</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" t="s">
+        <v>70</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B153" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>169</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" t="s">
+        <v>70</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A148 A134" xr:uid="{009C6976-9900-46D3-A6E2-01D764A0DE0B}">
+      <formula1>$B$2:$B$93</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>